--- a/rugby.xlsx
+++ b/rugby.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darragh\Documents\Python\rugby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34926C31-441A-4368-8977-C176EDF0B859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C11C633-1078-40EF-B7A1-90FB34EB5417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{AA92EC7C-FD40-4AA2-BEBD-374E43BBF5C5}"/>
   </bookViews>
@@ -20,6 +20,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -646,10 +653,10 @@
   <dimension ref="A1:M205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomRight" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1759,7 +1766,7 @@
         <v>12</v>
       </c>
       <c r="M27">
-        <f t="shared" ref="M27:M45" si="0">K27-L27</f>
+        <f t="shared" ref="M27:M53" si="0">K27-L27</f>
         <v>5</v>
       </c>
     </row>
@@ -1792,7 +1799,7 @@
         <v>2</v>
       </c>
       <c r="J28">
-        <f t="shared" ref="J28:J45" si="1">I28-H28</f>
+        <f t="shared" ref="J28:J53" si="1">I28-H28</f>
         <v>-3</v>
       </c>
       <c r="K28">
@@ -2551,6 +2558,32 @@
         <v>9</v>
       </c>
       <c r="E46">
+        <v>-1.5</v>
+      </c>
+      <c r="F46">
+        <v>34</v>
+      </c>
+      <c r="G46">
+        <v>7</v>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="K46">
+        <v>7</v>
+      </c>
+      <c r="L46">
+        <v>11</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="0"/>
         <v>-4</v>
       </c>
     </row>
@@ -2568,7 +2601,33 @@
         <v>10</v>
       </c>
       <c r="E47">
-        <v>-14</v>
+        <v>-10.5</v>
+      </c>
+      <c r="F47">
+        <v>36</v>
+      </c>
+      <c r="G47">
+        <v>13</v>
+      </c>
+      <c r="H47">
+        <v>8</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="K47">
+        <v>16</v>
+      </c>
+      <c r="L47">
+        <v>9</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -2585,10 +2644,36 @@
         <v>8</v>
       </c>
       <c r="E48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+      <c r="F48">
+        <v>28</v>
+      </c>
+      <c r="G48">
+        <v>27</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>8</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K48">
+        <v>13</v>
+      </c>
+      <c r="L48">
+        <v>13</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
@@ -2602,10 +2687,36 @@
         <v>14</v>
       </c>
       <c r="E49">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-8.5</v>
+      </c>
+      <c r="F49">
+        <v>35</v>
+      </c>
+      <c r="G49">
+        <v>24</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>13</v>
+      </c>
+      <c r="L49">
+        <v>10</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
@@ -2619,10 +2730,36 @@
         <v>5</v>
       </c>
       <c r="E50">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>36</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>6</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>16</v>
+      </c>
+      <c r="L50">
+        <v>6</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -2636,10 +2773,36 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18.5</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51">
+        <v>7</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
+      </c>
+      <c r="I51">
+        <v>6</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K51">
+        <v>12</v>
+      </c>
+      <c r="L51">
+        <v>11</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2</v>
       </c>
@@ -2655,8 +2818,34 @@
       <c r="E52">
         <v>-1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>18</v>
+      </c>
+      <c r="G52">
+        <v>14</v>
+      </c>
+      <c r="H52">
+        <v>6</v>
+      </c>
+      <c r="I52">
+        <v>6</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>6</v>
+      </c>
+      <c r="L52">
+        <v>16</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2</v>
       </c>
@@ -2670,10 +2859,36 @@
         <v>15</v>
       </c>
       <c r="E53">
-        <v>-25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-23.5</v>
+      </c>
+      <c r="F53">
+        <v>34</v>
+      </c>
+      <c r="G53">
+        <v>18</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="K53">
+        <v>11</v>
+      </c>
+      <c r="L53">
+        <v>10</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2686,8 +2901,11 @@
       <c r="D54" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2700,8 +2918,11 @@
       <c r="D55" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2714,8 +2935,11 @@
       <c r="D56" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
@@ -2728,8 +2952,11 @@
       <c r="D57" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3</v>
       </c>
@@ -2742,8 +2969,11 @@
       <c r="D58" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>3</v>
       </c>
@@ -2756,8 +2986,11 @@
       <c r="D59" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3</v>
       </c>
@@ -2770,8 +3003,11 @@
       <c r="D60" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -2784,8 +3020,11 @@
       <c r="D61" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
@@ -2799,7 +3038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>4</v>
       </c>
@@ -2813,7 +3052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>4</v>
       </c>

--- a/rugby.xlsx
+++ b/rugby.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darragh\Documents\Python\rugby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C11C633-1078-40EF-B7A1-90FB34EB5417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AC4D7B-EF07-412B-BAA5-824E55B6AA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{AA92EC7C-FD40-4AA2-BEBD-374E43BBF5C5}"/>
   </bookViews>
@@ -656,7 +656,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F61" sqref="F61"/>
+      <selection pane="bottomRight" activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1766,7 +1766,7 @@
         <v>12</v>
       </c>
       <c r="M27">
-        <f t="shared" ref="M27:M53" si="0">K27-L27</f>
+        <f t="shared" ref="M27:M60" si="0">K27-L27</f>
         <v>5</v>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
         <v>2</v>
       </c>
       <c r="J28">
-        <f t="shared" ref="J28:J53" si="1">I28-H28</f>
+        <f t="shared" ref="J28:J60" si="1">I28-H28</f>
         <v>-3</v>
       </c>
       <c r="K28">
@@ -2904,6 +2904,32 @@
       <c r="E54">
         <v>-14</v>
       </c>
+      <c r="F54">
+        <v>28</v>
+      </c>
+      <c r="G54">
+        <v>8</v>
+      </c>
+      <c r="H54">
+        <v>4</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>12</v>
+      </c>
+      <c r="L54">
+        <v>13</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
@@ -2921,6 +2947,32 @@
       <c r="E55">
         <v>-8</v>
       </c>
+      <c r="F55">
+        <v>13</v>
+      </c>
+      <c r="G55">
+        <v>27</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>6</v>
+      </c>
+      <c r="L55">
+        <v>7</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
@@ -2936,7 +2988,33 @@
         <v>16</v>
       </c>
       <c r="E56">
-        <v>-35</v>
+        <v>-37</v>
+      </c>
+      <c r="F56">
+        <v>43</v>
+      </c>
+      <c r="G56">
+        <v>7</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <v>6</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K56">
+        <v>6</v>
+      </c>
+      <c r="L56">
+        <v>9</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="0"/>
+        <v>-3</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -2953,7 +3031,33 @@
         <v>10</v>
       </c>
       <c r="E57">
-        <v>-14</v>
+        <v>-15</v>
+      </c>
+      <c r="F57">
+        <v>13</v>
+      </c>
+      <c r="G57">
+        <v>9</v>
+      </c>
+      <c r="H57">
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <v>4</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>13</v>
+      </c>
+      <c r="L57">
+        <v>6</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -2970,7 +3074,33 @@
         <v>7</v>
       </c>
       <c r="E58">
-        <v>-7</v>
+        <v>-8</v>
+      </c>
+      <c r="F58">
+        <v>22</v>
+      </c>
+      <c r="G58">
+        <v>35</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+      <c r="I58">
+        <v>8</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K58">
+        <v>10</v>
+      </c>
+      <c r="L58">
+        <v>14</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="0"/>
+        <v>-4</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -2987,7 +3117,33 @@
         <v>15</v>
       </c>
       <c r="E59">
-        <v>-9</v>
+        <v>-10.5</v>
+      </c>
+      <c r="F59">
+        <v>20</v>
+      </c>
+      <c r="G59">
+        <v>20</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>11</v>
+      </c>
+      <c r="L59">
+        <v>11</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
@@ -3004,7 +3160,33 @@
         <v>9</v>
       </c>
       <c r="E60">
-        <v>-8</v>
+        <v>-8.5</v>
+      </c>
+      <c r="F60">
+        <v>19</v>
+      </c>
+      <c r="G60">
+        <v>29</v>
+      </c>
+      <c r="H60">
+        <v>7</v>
+      </c>
+      <c r="I60">
+        <v>4</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="K60">
+        <v>13</v>
+      </c>
+      <c r="L60">
+        <v>15</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="0"/>
+        <v>-2</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
@@ -3021,7 +3203,7 @@
         <v>3</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
